--- a/P3/Results/Data/Clay/Clay0.5g/Results/OTResults.xlsx
+++ b/P3/Results/Data/Clay/Clay0.5g/Results/OTResults.xlsx
@@ -522,6 +522,51 @@
           <t>Green_Beside_Camera_light10_exp158798.0_20242111_114622.png</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-40.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-8.25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>32.25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>53</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-9.81</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-14.34</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-3.63</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -529,6 +574,51 @@
           <t>Green_Beside_Camera_light5_exp195346.0_20242111_114652.png</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="E5" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-38.31</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-8.529999999999999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="J5" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="K5" t="n">
+        <v>51.62</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-9.380000000000001</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-13.79</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-3.29</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -540,10 +630,10 @@
         <v>13.45</v>
       </c>
       <c r="C6" t="n">
-        <v>16.04</v>
+        <v>14.63</v>
       </c>
       <c r="D6" t="n">
-        <v>13.49</v>
+        <v>14.22</v>
       </c>
       <c r="E6" t="n">
         <v>15.93</v>
@@ -555,10 +645,10 @@
         <v>-39.23</v>
       </c>
       <c r="H6" t="n">
-        <v>9.539999999999999</v>
+        <v>-3.09</v>
       </c>
       <c r="I6" t="n">
-        <v>48.77</v>
+        <v>36.15</v>
       </c>
       <c r="J6" t="n">
         <v>14.95</v>
@@ -570,10 +660,10 @@
         <v>4.55</v>
       </c>
       <c r="M6" t="n">
-        <v>-11.63</v>
+        <v>-34.6</v>
       </c>
       <c r="N6" t="n">
-        <v>-16.18</v>
+        <v>-39.15</v>
       </c>
       <c r="O6" t="n">
         <v>2.61</v>
@@ -599,10 +689,10 @@
         <v>13.7</v>
       </c>
       <c r="C8" t="n">
-        <v>14.55</v>
+        <v>14.56</v>
       </c>
       <c r="D8" t="n">
-        <v>15.02</v>
+        <v>15.03</v>
       </c>
       <c r="E8" t="n">
         <v>15.99</v>
@@ -614,10 +704,10 @@
         <v>-39.94</v>
       </c>
       <c r="H8" t="n">
-        <v>-6.81</v>
+        <v>-6.77</v>
       </c>
       <c r="I8" t="n">
-        <v>33.13</v>
+        <v>33.17</v>
       </c>
       <c r="J8" t="n">
         <v>12.92</v>
@@ -629,10 +719,10 @@
         <v>4.44</v>
       </c>
       <c r="M8" t="n">
-        <v>-9.59</v>
+        <v>-9.550000000000001</v>
       </c>
       <c r="N8" t="n">
-        <v>-14.03</v>
+        <v>-13.99</v>
       </c>
       <c r="O8" t="n">
         <v>1.15</v>
@@ -654,7 +744,7 @@
         <v>14.46</v>
       </c>
       <c r="D9" t="n">
-        <v>15.31</v>
+        <v>15.32</v>
       </c>
       <c r="E9" t="n">
         <v>15.98</v>
@@ -666,10 +756,10 @@
         <v>-39.69</v>
       </c>
       <c r="H9" t="n">
-        <v>-6.65</v>
+        <v>-6.67</v>
       </c>
       <c r="I9" t="n">
-        <v>33.04</v>
+        <v>33.02</v>
       </c>
       <c r="J9" t="n">
         <v>12.45</v>
@@ -681,10 +771,10 @@
         <v>4.36</v>
       </c>
       <c r="M9" t="n">
-        <v>-8.76</v>
+        <v>-8.880000000000001</v>
       </c>
       <c r="N9" t="n">
-        <v>-13.12</v>
+        <v>-13.24</v>
       </c>
       <c r="O9" t="n">
         <v>0.77</v>
@@ -717,10 +807,10 @@
         <v>13.76</v>
       </c>
       <c r="C12" t="n">
-        <v>14.73</v>
+        <v>14.69</v>
       </c>
       <c r="D12" t="n">
-        <v>15.77</v>
+        <v>15.85</v>
       </c>
       <c r="E12" t="n">
         <v>15.81</v>
@@ -732,10 +822,10 @@
         <v>-30.45</v>
       </c>
       <c r="H12" t="n">
-        <v>-6.8</v>
+        <v>-7.49</v>
       </c>
       <c r="I12" t="n">
-        <v>23.65</v>
+        <v>22.96</v>
       </c>
       <c r="J12" t="n">
         <v>15.62</v>
@@ -747,10 +837,10 @@
         <v>4.69</v>
       </c>
       <c r="M12" t="n">
-        <v>-8.02</v>
+        <v>-8.390000000000001</v>
       </c>
       <c r="N12" t="n">
-        <v>-12.71</v>
+        <v>-13.08</v>
       </c>
       <c r="O12" t="n">
         <v>2.39</v>
@@ -769,10 +859,10 @@
         <v>13.97</v>
       </c>
       <c r="C13" t="n">
-        <v>14.66</v>
+        <v>14.67</v>
       </c>
       <c r="D13" t="n">
-        <v>15.82</v>
+        <v>15.81</v>
       </c>
       <c r="E13" t="n">
         <v>15.96</v>
@@ -784,10 +874,10 @@
         <v>-32.04</v>
       </c>
       <c r="H13" t="n">
-        <v>-7.87</v>
+        <v>-7.78</v>
       </c>
       <c r="I13" t="n">
-        <v>24.17</v>
+        <v>24.26</v>
       </c>
       <c r="J13" t="n">
         <v>14.97</v>
@@ -799,10 +889,10 @@
         <v>4.73</v>
       </c>
       <c r="M13" t="n">
-        <v>-8.59</v>
+        <v>-8.48</v>
       </c>
       <c r="N13" t="n">
-        <v>-13.32</v>
+        <v>-13.21</v>
       </c>
       <c r="O13" t="n">
         <v>2.09</v>
@@ -836,10 +926,10 @@
         <v>-37.12</v>
       </c>
       <c r="H14" t="n">
-        <v>2.81</v>
+        <v>2.78</v>
       </c>
       <c r="I14" t="n">
-        <v>39.93</v>
+        <v>39.9</v>
       </c>
       <c r="J14" t="n">
         <v>14.32</v>
@@ -851,10 +941,10 @@
         <v>3.98</v>
       </c>
       <c r="M14" t="n">
-        <v>-2.66</v>
+        <v>-2.68</v>
       </c>
       <c r="N14" t="n">
-        <v>-6.64</v>
+        <v>-6.66</v>
       </c>
       <c r="O14" t="n">
         <v>2.26</v>
